--- a/SpaOnline/EventStorming/InformacionBase-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/InformacionBase-Event Storming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E466E-7F98-445A-AF91-57D52F18711D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA8E252-56D3-4EF9-855D-A93F4F42AB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,16 +258,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -620,6 +623,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -632,70 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,6 +666,54 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1098,12 +1101,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
   </sheetData>
@@ -1119,10 +1122,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D10:D11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1131,27 +1134,27 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -1165,17 +1168,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1197,11 +1200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48754A43-63AA-49B0-88C8-BDEECFAD1844}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1224,85 +1227,85 @@
     <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="str">
+      <c r="B2" s="37" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="str">
+      <c r="B3" s="39" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de domino que contiene la informacion de los tipos de identificacion de las personas y tributarios ya existentes</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1312,52 +1315,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="45" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="38"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1370,87 +1373,75 @@
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -1467,6 +1458,18 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E1262D6D-A9AE-4170-B9C8-824A3DB96C15}"/>
@@ -1478,21 +1481,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -1636,10 +1624,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1662,19 +1675,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
